--- a/data/TissueCulture_6_2024.xlsx
+++ b/data/TissueCulture_6_2024.xlsx
@@ -2090,10 +2090,10 @@
         <v/>
       </c>
       <c r="AC8" s="1" t="n">
-        <v/>
+        <v>5</v>
       </c>
       <c r="AD8" s="1" t="n">
-        <v/>
+        <v>4</v>
       </c>
       <c r="AE8" s="1" t="n">
         <v/>
@@ -2153,10 +2153,10 @@
         <v/>
       </c>
       <c r="AX8" s="1" t="n">
-        <v/>
+        <v>14.7</v>
       </c>
       <c r="AY8" s="1" t="n">
-        <v/>
+        <v>12</v>
       </c>
       <c r="AZ8" s="1" t="n">
         <v/>
@@ -2180,10 +2180,10 @@
         <v/>
       </c>
       <c r="BG8" s="1" t="n">
-        <v/>
+        <v>3.7</v>
       </c>
       <c r="BH8" s="1" t="n">
-        <v/>
+        <v>7</v>
       </c>
       <c r="BI8" s="1" t="n"/>
       <c r="BJ8" s="1" t="n"/>
